--- a/0_PRM_Model_Folder/論文用比較/Score_Compile_まとめ.xlsx
+++ b/0_PRM_Model_Folder/論文用比較/Score_Compile_まとめ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satoshi_matsuno/Desktop/研究/0_DATA/0_PRM_construction_base/PRM_application/PRM_application-main/0_PRM_Model_Folder/論文用比較/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF1AE1C-5674-C140-B78D-1C04045A4EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6EE777-386E-3047-B8B1-9FC9324D8E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2020" yWindow="-23500" windowWidth="36240" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Rb</t>
   </si>
@@ -91,6 +91,24 @@
   </si>
   <si>
     <t>LightGBM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>This Study</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Matsuno et al. 2022</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NGBoost</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>SiO2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -99,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +142,45 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -165,39 +222,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -502,258 +597,643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A969B6-49D5-7445-8105-4341FBACF7E7}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="11.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="3" customWidth="1"/>
+    <col min="2" max="3" width="12" style="3" customWidth="1"/>
+    <col min="4" max="4" width="1.5" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:6" ht="23" customHeight="1" thickBot="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B3" s="9">
         <v>0.18456634390096141</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C3" s="9">
         <v>0.19106010693589301</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="E3" s="3">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="9">
         <v>0.1576227044604713</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="9">
         <v>0.1598324674599523</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="E4" s="3">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="9">
         <v>0.11558194577324669</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C5" s="9">
         <v>0.1210396203203206</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="E5" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B6" s="9">
         <v>0.1537032470125585</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C6" s="9">
         <v>0.15873811607920971</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="E6" s="3">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="9">
         <v>6.0635433146658778E-2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C7" s="9">
         <v>6.3789415496856364E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="E7" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B8" s="9">
         <v>4.9730730085098387E-2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C8" s="9">
         <v>5.2855591035937011E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="E8" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B9" s="9">
         <v>0.16079189636169181</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C9" s="9">
         <v>0.16645301705025589</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="E9" s="3">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="9">
         <v>8.777089859444534E-2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C10" s="9">
         <v>9.588187670661856E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="E10" s="3">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="9">
         <v>8.2600396949933208E-2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C11" s="9">
         <v>8.5939867169225526E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="E11" s="3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="9">
         <v>4.4311863622238247E-2</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C12" s="9">
         <v>4.5997184259243637E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="E12" s="3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="9">
         <v>5.6291828955391712E-2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C13" s="9">
         <v>5.9540284693481847E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="E13" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B14" s="9">
         <v>5.8264453689247472E-2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C14" s="9">
         <v>6.1809515598338763E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="E14" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B15" s="9">
         <v>5.6896475036623588E-2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C15" s="9">
         <v>6.0192389970703163E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="E15" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="9">
         <v>1.03536315783859E-2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C16" s="9">
         <v>1.0623538297162659E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:26" ht="18" customHeight="1">
+      <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B17" s="9">
         <v>3.1291063940712002E-2</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C17" s="9">
         <v>3.190566502764098E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:26" ht="18" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B18" s="9">
         <v>8.3688931915178788E-2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C18" s="9">
         <v>8.8397359311253088E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:26" ht="18" customHeight="1">
+      <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B19" s="9">
         <v>5.5490871619139299E-2</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C19" s="9">
         <v>5.8638097602137673E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" customHeight="1">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:26" ht="18" customHeight="1">
+      <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B20" s="9">
         <v>3.8679405370741063E-2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C20" s="9">
         <v>3.9737497158820023E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:26" ht="18" customHeight="1">
+      <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B21" s="9">
         <v>4.6535592680915068E-2</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C21" s="9">
         <v>4.7198315142745528E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.1527275298707923</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.15777687300895979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="24" thickBot="1">
+      <c r="A32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B32" s="9">
         <v>6.0723027183198622E-2</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C32" s="9">
         <v>6.5010743100186355E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="10">
-        <v>0.1527275298707923</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.15777687300895979</v>
-      </c>
-    </row>
+      <c r="M32" s="12"/>
+      <c r="N32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z32" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="12:26" ht="16" thickTop="1">
+      <c r="M33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="14">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="O33" s="14">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="P33" s="14">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="R33" s="14">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="S33" s="14">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="T33" s="14">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="U33" s="14">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V33" s="14">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="W33" s="14">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="X33" s="14">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Y33" s="14">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="Z33" s="14">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="12:26" ht="16" thickBot="1">
+      <c r="M34" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="15">
+        <v>0.247</v>
+      </c>
+      <c r="O34" s="15">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="P34" s="15">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="R34" s="15">
+        <v>6.2E-2</v>
+      </c>
+      <c r="S34" s="15">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="T34" s="15">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="U34" s="15">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="V34" s="15">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="W34" s="15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="X34" s="15">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Y34" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="Z34" s="15">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="12:26" ht="25" thickTop="1" thickBot="1">
+      <c r="L35" s="12"/>
+      <c r="M35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="12:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="14">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="37" spans="12:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L37" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="14">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="12:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L38" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="14">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="N38" s="15">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="12:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L39" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" s="14">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="12:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L40" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40" s="14">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="N40" s="15">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="12:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L41" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="14">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="N41" s="15">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="12:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L42" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42" s="14">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="N42" s="15">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="12:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="14">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="N43" s="15">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="12:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L44" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="14">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N44" s="15">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="12:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M45" s="14">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="N45" s="15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="12:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" s="14">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N46" s="15">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="12:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L47" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="14">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="N47" s="15">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="48" spans="12:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L48" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="14">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="N48" s="15">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" ht="15" thickTop="1"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0_PRM_Model_Folder/論文用比較/Score_Compile_まとめ.xlsx
+++ b/0_PRM_Model_Folder/論文用比較/Score_Compile_まとめ.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satoshi_matsuno/Desktop/研究/0_DATA/0_PRM_construction_base/PRM_application/PRM_application-main/0_PRM_Model_Folder/論文用比較/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6EE777-386E-3047-B8B1-9FC9324D8E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F085F84-6388-B04D-9FC9-F98806D332FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2020" yWindow="-23500" windowWidth="36240" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="28">
   <si>
     <t>Rb</t>
   </si>
@@ -246,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -289,10 +290,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -596,11 +600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A969B6-49D5-7445-8105-4341FBACF7E7}">
-  <dimension ref="A1:Z49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99E1878-06E1-4843-84BB-F8C4B2D2296E}">
+  <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F22"/>
+      <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -613,15 +617,15 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23" customHeight="1" thickBot="1">
       <c r="A1" s="5"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A2" s="6"/>
@@ -691,6 +695,663 @@
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
       <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>6.0635433146658778E-2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>6.3789415496856364E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>4.9730730085098387E-2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5.2855591035937011E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.16079189636169181</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.16645301705025589</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8.777089859444534E-2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>9.588187670661856E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>8.2600396949933208E-2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>8.5939867169225526E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>4.4311863622238247E-2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4.5997184259243637E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <v>5.6291828955391712E-2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>5.9540284693481847E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
+        <v>5.8264453689247472E-2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>6.1809515598338763E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
+        <v>5.6896475036623588E-2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>6.0192389970703163E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1.03536315783859E-2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1.0623538297162659E-2</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>3.1291063940712002E-2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>3.190566502764098E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="18" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>8.3688931915178788E-2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>8.8397359311253088E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="18" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>5.5490871619139299E-2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>5.8638097602137673E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="18" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3.8679405370741063E-2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3.9737497158820023E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="18" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>4.6535592680915068E-2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>4.7198315142745528E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.1527275298707923</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.15777687300895979</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="24" thickBot="1">
+      <c r="A31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="9">
+        <v>6.0723027183198622E-2</v>
+      </c>
+      <c r="C31" s="9">
+        <v>6.5010743100186355E-2</v>
+      </c>
+      <c r="M31" s="12"/>
+      <c r="N31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z31" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="16" thickTop="1">
+      <c r="M32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="14">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="O32" s="14">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="P32" s="14">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="R32" s="14">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="S32" s="14">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="T32" s="14">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="U32" s="14">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V32" s="14">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="W32" s="14">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="X32" s="14">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Y32" s="14">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="Z32" s="14">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:26" ht="16" thickBot="1">
+      <c r="M33" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="15">
+        <v>0.247</v>
+      </c>
+      <c r="O33" s="15">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="P33" s="15">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="R33" s="15">
+        <v>6.2E-2</v>
+      </c>
+      <c r="S33" s="15">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="T33" s="15">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="U33" s="15">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="V33" s="15">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="W33" s="15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="X33" s="15">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Y33" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="Z33" s="15">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:26" ht="25" thickTop="1" thickBot="1">
+      <c r="L34" s="12"/>
+      <c r="M34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="4:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="14">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="36" spans="4:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L36" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" s="14">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="4:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L37" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="14">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="4:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L38" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="14">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="N38" s="15">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="4:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M39" s="14">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="N39" s="15">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L40" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M40" s="14">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="N40" s="15">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="4:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L41" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" s="14">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="N41" s="15">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="4:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" s="14">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="N42" s="15">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="4:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L43" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="14">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N43" s="15">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="4:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M44" s="14">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="N44" s="15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="4:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L45" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="14">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N45" s="15">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" s="14">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="N46" s="15">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="47" spans="4:26" ht="17" thickTop="1" thickBot="1">
+      <c r="L47" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="14">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="N47" s="15">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="4:26" s="3" customFormat="1" ht="15" thickTop="1">
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A969B6-49D5-7445-8105-4341FBACF7E7}">
+  <dimension ref="A1:Z49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="3" customWidth="1"/>
+    <col min="2" max="3" width="12" style="3" customWidth="1"/>
+    <col min="4" max="4" width="1.5" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23" customHeight="1" thickBot="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.18456634390096141</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.19106010693589301</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.1576227044604713</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.1598324674599523</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.11558194577324669</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.1210396203203206</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="9">
@@ -935,6 +1596,12 @@
       </c>
       <c r="C22" s="11">
         <v>0.15777687300895979</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="24" thickBot="1">
@@ -1239,7 +1906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
